--- a/findbyfilewebelement/src/test/resources/excel/ValidFileInvalidHeadersData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/ValidFileInvalidHeadersData.xlsx
@@ -24,9 +24,6 @@
     <t>validFileInvalidHeader</t>
   </si>
   <si>
-    <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFileInvalidHeadersPage</t>
-  </si>
-  <si>
     <t>InvalidClass</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>InvalidUsing</t>
+  </si>
+  <si>
+    <t>file.pagefactory.excel.ExcelFileProcessorTest$ValidFileInvalidHeadersPage</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -408,21 +408,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
